--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['MEC-2B-Metalografia', -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['MEC-2B-Metalografia', -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,7 +670,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1106,6 +1106,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>[-, -, 'MEC-2B-Metalografia', -]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,27 +601,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>[-, -, 'MEC-2B-Metalografia', -]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-2B-Metalografia']</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, -, 'MEC-2B-Metalografia', -]</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2B-Metalografia', -, -, -]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2B-Metalografia', -, -, -]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2B-Metalografia', -, -, -]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>['MEC-2B-Metalografia', -, -, -]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['MEC-2B-Metalografia', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['MEC-2B-Metalografia', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['MEC-2B-Metalografia', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['MEC-2B-Metalografia', -, -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -606,12 +606,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -638,12 +638,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -670,12 +670,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[-, 'MEC-2B-Metalografia', -, -]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -547,12 +547,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>MEC-2B-Metalografia</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/teacher/Elaine.xlsx
+++ b/data/teacher/Elaine.xlsx
@@ -552,12 +552,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MEC-2B-Metalografia</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -616,12 +616,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MEC-2B-Metalografia</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MEC-2B-Metalografia</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -680,12 +680,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MEC-2B-Metalografia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MEC-2B-Metalografia</t>
+          <t>-</t>
         </is>
       </c>
     </row>
